--- a/East Boston Locations.xlsx
+++ b/East Boston Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8481435C-B2E4-4878-A847-4C7A4020BDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D43BE-A895-4BC0-91AB-41D72D50014B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01E477F0-BF0A-4F8F-AF1E-0817596CF781}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{01E477F0-BF0A-4F8F-AF1E-0817596CF781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Visited - No Good -Living Room has no Windows</t>
+  </si>
+  <si>
+    <t>SDFSDMFSDKLFNSDKLNMFKLSDFNMKLSDFNLSD</t>
   </si>
 </sst>
 </file>
@@ -234,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950A6AFD-7EAD-419A-A712-5994C41EF6E3}" name="Table1" displayName="Table1" ref="B2:J15" totalsRowShown="0">
-  <autoFilter ref="B2:J15" xr:uid="{2CE72DA6-A275-46C9-8255-FD8ECEE37CDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{950A6AFD-7EAD-419A-A712-5994C41EF6E3}" name="Table1" displayName="Table1" ref="B2:J16" totalsRowShown="0">
+  <autoFilter ref="B2:J16" xr:uid="{2CE72DA6-A275-46C9-8255-FD8ECEE37CDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J15">
     <sortCondition ref="G2:G15"/>
   </sortState>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6369D71-AEA0-43EE-896D-07AE4EFAB3A9}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C22" sqref="C21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +912,13 @@
         <v>33</v>
       </c>
     </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{BCCD95CE-2890-4C12-A81E-55B9EBFA22AC}"/>
